--- a/Industry.xlsx
+++ b/Industry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="954">
   <si>
     <t>count</t>
   </si>
@@ -190,9 +190,6 @@
     <t>ARCHAEOLOGY / CULTURAL RESOURCE MANAGEMENT</t>
   </si>
   <si>
-    <t>ARCHAEOLOGY/CULTURAL RESOURCE MANAGER</t>
-  </si>
-  <si>
     <t>ARCHITECT</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
     <t>BIOLOGY</t>
   </si>
   <si>
-    <t>BIOLOGY/RESEARCH</t>
-  </si>
-  <si>
     <t>BIOMEDICAL RESEARCH</t>
   </si>
   <si>
@@ -469,9 +463,6 @@
     <t>CHEMICALS/ MATERIALS</t>
   </si>
   <si>
-    <t>CHEMISTRY</t>
-  </si>
-  <si>
     <t>CHILD AND YOUT CARE</t>
   </si>
   <si>
@@ -526,9 +517,6 @@
     <t>COACHING</t>
   </si>
   <si>
-    <t>COFFEE - IMPORTING</t>
-  </si>
-  <si>
     <t>COLLEGE ATHLETICS</t>
   </si>
   <si>
@@ -580,9 +568,6 @@
     <t>COMPUTING OR TECH</t>
   </si>
   <si>
-    <t>COMPUTING/TECH + HIGHER ED + NONPROFIT</t>
-  </si>
-  <si>
     <t>CONCRETE</t>
   </si>
   <si>
@@ -613,9 +598,6 @@
     <t>CONSULTING</t>
   </si>
   <si>
-    <t>CONSULTING / PROFESSIONAL SERVICES</t>
-  </si>
-  <si>
     <t>CONSULTING OPERATIONS- BIG 4</t>
   </si>
   <si>
@@ -724,9 +706,6 @@
     <t>CUSTOMER SERVICE</t>
   </si>
   <si>
-    <t>CUSTOMER SERVICE/CALL CENTER</t>
-  </si>
-  <si>
     <t>CUSTOMER SERVICE/PUBLISHING-ADJACENT</t>
   </si>
   <si>
@@ -760,9 +739,6 @@
     <t>DELIVERY AND INSTALLATION FOR COMMERCIAL MACHINERY</t>
   </si>
   <si>
-    <t>DIAGNOSTIC MEDICAL DEVICES</t>
-  </si>
-  <si>
     <t>DIGITAL</t>
   </si>
   <si>
@@ -856,9 +832,6 @@
     <t>EDUCATION (HIGHER EDUCATION)</t>
   </si>
   <si>
-    <t>EDUCATION (OTHER)</t>
-  </si>
-  <si>
     <t>EDUCATION (PRIMARY/SECONDARY)</t>
   </si>
   <si>
@@ -961,9 +934,6 @@
     <t>ENTERTAINMENT</t>
   </si>
   <si>
-    <t>ENTERTAINMENT DATA</t>
-  </si>
-  <si>
     <t>ENTREPRENEUR HIGH NET WORTH</t>
   </si>
   <si>
@@ -1060,9 +1030,6 @@
     <t>FASHION/E-COMMERCE</t>
   </si>
   <si>
-    <t>FAST CASUAL RESTAURANT</t>
-  </si>
-  <si>
     <t>FAST FOOD</t>
   </si>
   <si>
@@ -1111,9 +1078,6 @@
     <t>FOOD &amp; BEVERAGES</t>
   </si>
   <si>
-    <t>FOOD &amp; NUTRITION</t>
-  </si>
-  <si>
     <t>FOOD AND BEVERAGE</t>
   </si>
   <si>
@@ -1192,9 +1156,6 @@
     <t>FUNDRAISING FOR A UNIVERSITY</t>
   </si>
   <si>
-    <t>FUNDRAISING IN HIGHER EDUCATION; NONCLINICAL, NONACADEMIC</t>
-  </si>
-  <si>
     <t>FUNERAL</t>
   </si>
   <si>
@@ -1291,9 +1252,6 @@
     <t>GRADUATE ASSISTANT AND ALSO EVENTS</t>
   </si>
   <si>
-    <t>GRADUATE STUDENT</t>
-  </si>
-  <si>
     <t>GRANTWRITING CONSULTANTS</t>
   </si>
   <si>
@@ -1366,15 +1324,9 @@
     <t>HOSPITALITY &amp; EVENTS</t>
   </si>
   <si>
-    <t>HOUSEHOLD SERVICES</t>
-  </si>
-  <si>
     <t>HOUSEKEEPER/COOK</t>
   </si>
   <si>
-    <t>HRO</t>
-  </si>
-  <si>
     <t>HUMAN CAPITAL MANAGEMENT</t>
   </si>
   <si>
@@ -1465,9 +1417,6 @@
     <t>INTERIOR DESIGN &amp; ARCHITECTURE</t>
   </si>
   <si>
-    <t>INTERIOR LANDSCAPING</t>
-  </si>
-  <si>
     <t>INTERNAL COMMUNICATIONS</t>
   </si>
   <si>
@@ -1507,9 +1456,6 @@
     <t>IT SECURITY</t>
   </si>
   <si>
-    <t>JANITORIAL</t>
-  </si>
-  <si>
     <t>JOURNALISM</t>
   </si>
   <si>
@@ -1546,12 +1492,6 @@
     <t>LANGUAGE SERVICES</t>
   </si>
   <si>
-    <t>LANGUAGE SERVICES COMPANY, UNSURE THE BROAD CATEGORY TO USE. OUR CLIENTS ARE BRANDING AGENCIES, AND THEIR CLIENTS ARE FREQUENTLY (BUT NOT ALWAYS) PHARMACEUTICAL COMPANIES.</t>
-  </si>
-  <si>
-    <t>LARGE UNIVERSITY ADMINISTRATION</t>
-  </si>
-  <si>
     <t>LAUNDRY AND RENTAL</t>
   </si>
   <si>
@@ -1609,9 +1549,6 @@
     <t>LIBRARIES AND ARCHIVES (ACADEMIC)</t>
   </si>
   <si>
-    <t>LIBRARIES/ARCHIVES</t>
-  </si>
-  <si>
     <t>LIBRARIES/MUSEUMS/ARCHIVES</t>
   </si>
   <si>
@@ -1636,9 +1573,6 @@
     <t>LIBRARY PAGE (PUBLIC COUNTY LIBRARY)</t>
   </si>
   <si>
-    <t>LIBRARY SCIENCE / PART-TIME WORK/STUDY</t>
-  </si>
-  <si>
     <t>LIBRARY TECH FOR A SCHOOL SYSTEM</t>
   </si>
   <si>
@@ -1729,9 +1663,6 @@
     <t>MARKETING AT A NON PROFIT</t>
   </si>
   <si>
-    <t>MARKETING TECHNOLOGY</t>
-  </si>
-  <si>
     <t>MARKETING, ADVERTISING &amp; PR</t>
   </si>
   <si>
@@ -1789,9 +1720,6 @@
     <t>MINING &amp; MINERAL PROCESSING</t>
   </si>
   <si>
-    <t>MINING AND NATURAL RESOURCES</t>
-  </si>
-  <si>
     <t>MINING/MINERAL EXPLORATION</t>
   </si>
   <si>
@@ -1813,9 +1741,6 @@
     <t>MUNICIPAL GOVERNMENT (LIBRARY)</t>
   </si>
   <si>
-    <t>MUNICIPAL LIBRARY</t>
-  </si>
-  <si>
     <t>MUSEUM</t>
   </si>
   <si>
@@ -1906,9 +1831,6 @@
     <t>OBLIGATORY MILITARY SERVICE</t>
   </si>
   <si>
-    <t>OCEANOGRAPHY RESEARCH</t>
-  </si>
-  <si>
     <t>OFFICE ADMIN</t>
   </si>
   <si>
@@ -2008,9 +1930,6 @@
     <t>PET CARE INDUSTRY (DOG TRAINING/WALKING)</t>
   </si>
   <si>
-    <t>PET CARE/GROOMING</t>
-  </si>
-  <si>
     <t>PETROLEUM</t>
   </si>
   <si>
@@ -2221,9 +2140,6 @@
     <t>PUBLIC HEALTH</t>
   </si>
   <si>
-    <t>PUBLIC HEALTH (NOT MEDICAL)</t>
-  </si>
-  <si>
     <t>PUBLIC HEALTH IN HIGHER EDUCATION</t>
   </si>
   <si>
@@ -2263,9 +2179,6 @@
     <t>PUBLIC SAFETY</t>
   </si>
   <si>
-    <t>PUBLIC/ENVIRONMENTAL HEALTH</t>
-  </si>
-  <si>
     <t>PUBLIC/RESEARCH LIBRARY</t>
   </si>
   <si>
@@ -2341,9 +2254,6 @@
     <t>REAL ESTATE SERVICES</t>
   </si>
   <si>
-    <t>REAL ESTATE SOFTWARE</t>
-  </si>
-  <si>
     <t>REAL ESTATE TITLE COMPANY</t>
   </si>
   <si>
@@ -2356,9 +2266,6 @@
     <t>REAL ESTATE/DEVELOPMENT</t>
   </si>
   <si>
-    <t>REAL ESTATE: TITLE &amp; ESCROW</t>
-  </si>
-  <si>
     <t>REAL WORLD EVIDENCE (DATA FOR PHARMA RESEARCH)</t>
   </si>
   <si>
@@ -2404,9 +2311,6 @@
     <t>RENEWABLE FUELS</t>
   </si>
   <si>
-    <t>REPAIR FACILITY FOR HEAVY DUTY TRUCKS</t>
-  </si>
-  <si>
     <t>RESEARCH</t>
   </si>
   <si>
@@ -2500,9 +2404,6 @@
     <t>RETAIL REAL ESTATE</t>
   </si>
   <si>
-    <t>RETIRED</t>
-  </si>
-  <si>
     <t>RIDESHARE</t>
   </si>
   <si>
@@ -2650,9 +2551,6 @@
     <t>SOFTWARE DEVELOPMENT</t>
   </si>
   <si>
-    <t>SOFTWARE DEVELOPMENT / IT</t>
-  </si>
-  <si>
     <t>SOFTWARE PRODUCTS</t>
   </si>
   <si>
@@ -2749,9 +2647,6 @@
     <t>SURVEYING</t>
   </si>
   <si>
-    <t>SYNTHETIC CHEMICAL MANUFACTURING</t>
-  </si>
-  <si>
     <t>TABLETOP GAMES PUBLISHING</t>
   </si>
   <si>
@@ -2800,9 +2695,6 @@
     <t>TIC (TESTING, INSPECTION &amp; CERTIFICATION)</t>
   </si>
   <si>
-    <t>TITLE/REAL ESTATE</t>
-  </si>
-  <si>
     <t>TOURISM</t>
   </si>
   <si>
@@ -2857,9 +2749,6 @@
     <t>UNIVERSITY ADMINISTRATION</t>
   </si>
   <si>
-    <t>UNIVERSITY LIBRARIES</t>
-  </si>
-  <si>
     <t>UNIVERSITY RESEARCH</t>
   </si>
   <si>
@@ -2872,9 +2761,6 @@
     <t>USER EXPERIENCE (UX) RESEARCH</t>
   </si>
   <si>
-    <t>USER EXPERIENCE DESIGN</t>
-  </si>
-  <si>
     <t>UTILITIES &amp; TELECOMMUNICATIONS</t>
   </si>
   <si>
@@ -2929,9 +2815,6 @@
     <t>WAREHOUSING</t>
   </si>
   <si>
-    <t>WASTE AND RECYCLING</t>
-  </si>
-  <si>
     <t>WASTE MANAGEMENT</t>
   </si>
   <si>
@@ -2962,9 +2845,6 @@
     <t>WHOLESALE SUPPLIER</t>
   </si>
   <si>
-    <t>WHOLESALE TEXTILE MANUFACTURE AND SALES</t>
-  </si>
-  <si>
     <t>WHOLESALE TRADE</t>
   </si>
   <si>
@@ -2984,9 +2864,6 @@
   </si>
   <si>
     <t>WINERY REGULATORY COMPLIANCE</t>
-  </si>
-  <si>
-    <t>WORK-STUDY</t>
   </si>
   <si>
     <t>WORKFORCE DEVELOPMENT</t>
@@ -3356,7 +3233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B994"/>
+  <dimension ref="A1:B953"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3383,7 +3260,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3463,7 +3340,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3487,7 +3364,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3495,7 +3372,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1767</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3663,7 +3540,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3823,7 +3700,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3831,7 +3708,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3839,7 +3716,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3847,7 +3724,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3887,7 +3764,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3895,7 +3772,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3911,7 +3788,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3919,7 +3796,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3951,7 +3828,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3967,7 +3844,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3975,7 +3852,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3983,7 +3860,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3991,7 +3868,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3999,7 +3876,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4007,7 +3884,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4023,7 +3900,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4031,7 +3908,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4055,7 +3932,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4063,7 +3940,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4111,7 +3988,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4135,7 +4012,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4183,7 +4060,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4191,7 +4068,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4215,7 +4092,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4223,7 +4100,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4231,7 +4108,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4239,7 +4116,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4247,7 +4124,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4263,7 +4140,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4311,7 +4188,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4319,7 +4196,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4327,7 +4204,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4335,7 +4212,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4343,7 +4220,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4351,7 +4228,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4359,7 +4236,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4375,7 +4252,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4391,7 +4268,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4407,7 +4284,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4415,7 +4292,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>790</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4423,7 +4300,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4431,7 +4308,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4439,7 +4316,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4447,7 +4324,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4463,7 +4340,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4479,7 +4356,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4559,7 +4436,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4567,7 +4444,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4575,7 +4452,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4583,7 +4460,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4599,7 +4476,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4623,7 +4500,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4631,7 +4508,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -4647,7 +4524,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -4655,7 +4532,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -4671,7 +4548,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -4735,7 +4612,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -4767,7 +4644,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -4783,7 +4660,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4815,7 +4692,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4823,7 +4700,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4847,7 +4724,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4855,7 +4732,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>4604</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4895,7 +4772,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4903,7 +4780,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4935,7 +4812,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4943,7 +4820,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4951,7 +4828,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4983,7 +4860,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4999,7 +4876,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5071,7 +4948,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -5119,7 +4996,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5191,7 +5068,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5239,7 +5116,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5255,7 +5132,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5263,7 +5140,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5311,7 +5188,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5319,7 +5196,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5335,7 +5212,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5383,7 +5260,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5399,7 +5276,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5407,7 +5284,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5447,7 +5324,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5471,7 +5348,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5479,7 +5356,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5495,7 +5372,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5511,7 +5388,7 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5527,7 +5404,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5535,7 +5412,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>787</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5543,7 +5420,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5559,7 +5436,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5591,7 +5468,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>2410</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5607,7 +5484,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5639,7 +5516,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5663,7 +5540,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5687,7 +5564,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5711,7 +5588,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5735,7 +5612,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5759,7 +5636,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5791,7 +5668,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5799,7 +5676,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>221</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5831,7 +5708,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5863,7 +5740,7 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>1662</v>
+        <v>17</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5871,7 +5748,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>249</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5895,7 +5772,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5911,7 +5788,7 @@
         <v>319</v>
       </c>
       <c r="B319">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5943,7 +5820,7 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5951,7 +5828,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5959,7 +5836,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5975,7 +5852,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5991,7 +5868,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6015,7 +5892,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6023,7 +5900,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6031,7 +5908,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6047,7 +5924,7 @@
         <v>336</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6087,7 +5964,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6095,7 +5972,7 @@
         <v>342</v>
       </c>
       <c r="B342">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6103,7 +5980,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6119,7 +5996,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6127,7 +6004,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6151,7 +6028,7 @@
         <v>349</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6159,7 +6036,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6167,7 +6044,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6175,7 +6052,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6191,7 +6068,7 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6215,7 +6092,7 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6223,7 +6100,7 @@
         <v>358</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6231,7 +6108,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6247,7 +6124,7 @@
         <v>361</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6255,7 +6132,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6263,7 +6140,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6279,7 +6156,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6287,7 +6164,7 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6295,7 +6172,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6319,7 +6196,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6327,7 +6204,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6351,7 +6228,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6359,7 +6236,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6375,7 +6252,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6383,7 +6260,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6391,7 +6268,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6407,7 +6284,7 @@
         <v>381</v>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6415,7 +6292,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6431,7 +6308,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6479,7 +6356,7 @@
         <v>390</v>
       </c>
       <c r="B390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6519,7 +6396,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6535,7 +6412,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6551,7 +6428,7 @@
         <v>399</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6559,7 +6436,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6591,7 +6468,7 @@
         <v>404</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -6615,7 +6492,7 @@
         <v>407</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -6623,7 +6500,7 @@
         <v>408</v>
       </c>
       <c r="B408">
-        <v>1865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -6639,7 +6516,7 @@
         <v>410</v>
       </c>
       <c r="B410">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -6663,7 +6540,7 @@
         <v>413</v>
       </c>
       <c r="B413">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -6695,7 +6572,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -6719,7 +6596,7 @@
         <v>420</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -6751,7 +6628,7 @@
         <v>424</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -6767,7 +6644,7 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -6783,7 +6660,7 @@
         <v>428</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -6831,7 +6708,7 @@
         <v>434</v>
       </c>
       <c r="B434">
-        <v>1862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -6839,7 +6716,7 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>244</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -6863,7 +6740,7 @@
         <v>438</v>
       </c>
       <c r="B438">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -6879,7 +6756,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -6951,7 +6828,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -6991,7 +6868,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -7023,7 +6900,7 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -7063,7 +6940,7 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>498</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -7111,7 +6988,7 @@
         <v>469</v>
       </c>
       <c r="B469">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -7143,7 +7020,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -7151,7 +7028,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -7175,7 +7052,7 @@
         <v>477</v>
       </c>
       <c r="B477">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -7191,7 +7068,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>523</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -7199,7 +7076,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -7223,7 +7100,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -7247,7 +7124,7 @@
         <v>486</v>
       </c>
       <c r="B486">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -7279,7 +7156,7 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -7303,7 +7180,7 @@
         <v>493</v>
       </c>
       <c r="B493">
-        <v>1</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -7311,7 +7188,7 @@
         <v>494</v>
       </c>
       <c r="B494">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -7327,7 +7204,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -7343,7 +7220,7 @@
         <v>498</v>
       </c>
       <c r="B498">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -7351,7 +7228,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -7359,7 +7236,7 @@
         <v>500</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -7367,7 +7244,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -7391,7 +7268,7 @@
         <v>504</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -7399,7 +7276,7 @@
         <v>505</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -7431,7 +7308,7 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -7455,7 +7332,7 @@
         <v>512</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -7463,7 +7340,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>1070</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -7471,7 +7348,7 @@
         <v>514</v>
       </c>
       <c r="B514">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -7503,7 +7380,7 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -7511,7 +7388,7 @@
         <v>519</v>
       </c>
       <c r="B519">
-        <v>97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -7519,7 +7396,7 @@
         <v>520</v>
       </c>
       <c r="B520">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -7543,7 +7420,7 @@
         <v>523</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -7551,7 +7428,7 @@
         <v>524</v>
       </c>
       <c r="B524">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -7559,7 +7436,7 @@
         <v>525</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -7567,7 +7444,7 @@
         <v>526</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -7575,7 +7452,7 @@
         <v>527</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -7591,7 +7468,7 @@
         <v>529</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -7623,7 +7500,7 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -7647,7 +7524,7 @@
         <v>536</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -7719,7 +7596,7 @@
         <v>545</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -7735,7 +7612,7 @@
         <v>547</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -7743,7 +7620,7 @@
         <v>548</v>
       </c>
       <c r="B548">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -7751,7 +7628,7 @@
         <v>549</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -7767,7 +7644,7 @@
         <v>551</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>713</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -7783,7 +7660,7 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -7791,7 +7668,7 @@
         <v>554</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -7799,7 +7676,7 @@
         <v>555</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -7823,7 +7700,7 @@
         <v>558</v>
       </c>
       <c r="B558">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -7847,7 +7724,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -7863,7 +7740,7 @@
         <v>563</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -7879,7 +7756,7 @@
         <v>565</v>
       </c>
       <c r="B565">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -7887,7 +7764,7 @@
         <v>566</v>
       </c>
       <c r="B566">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -7911,7 +7788,7 @@
         <v>569</v>
       </c>
       <c r="B569">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -7919,7 +7796,7 @@
         <v>570</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -7927,7 +7804,7 @@
         <v>571</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -7935,7 +7812,7 @@
         <v>572</v>
       </c>
       <c r="B572">
-        <v>1109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -7951,7 +7828,7 @@
         <v>574</v>
       </c>
       <c r="B574">
-        <v>758</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -7959,7 +7836,7 @@
         <v>575</v>
       </c>
       <c r="B575">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -7967,7 +7844,7 @@
         <v>576</v>
       </c>
       <c r="B576">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -7975,7 +7852,7 @@
         <v>577</v>
       </c>
       <c r="B577">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -7983,7 +7860,7 @@
         <v>578</v>
       </c>
       <c r="B578">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -8031,7 +7908,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -8047,7 +7924,7 @@
         <v>586</v>
       </c>
       <c r="B586">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -8063,7 +7940,7 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -8071,7 +7948,7 @@
         <v>589</v>
       </c>
       <c r="B589">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -8087,7 +7964,7 @@
         <v>591</v>
       </c>
       <c r="B591">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -8095,7 +7972,7 @@
         <v>592</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -8111,7 +7988,7 @@
         <v>594</v>
       </c>
       <c r="B594">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -8119,7 +7996,7 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -8151,7 +8028,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>1</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -8159,7 +8036,7 @@
         <v>600</v>
       </c>
       <c r="B600">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -8207,7 +8084,7 @@
         <v>606</v>
       </c>
       <c r="B606">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -8223,7 +8100,7 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -8239,7 +8116,7 @@
         <v>610</v>
       </c>
       <c r="B610">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -8247,7 +8124,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -8287,7 +8164,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -8295,7 +8172,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -8319,7 +8196,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -8351,7 +8228,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>2381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -8431,7 +8308,7 @@
         <v>634</v>
       </c>
       <c r="B634">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -8447,7 +8324,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -8455,7 +8332,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -8471,7 +8348,7 @@
         <v>639</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -8519,7 +8396,7 @@
         <v>645</v>
       </c>
       <c r="B645">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -8543,7 +8420,7 @@
         <v>648</v>
       </c>
       <c r="B648">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -8559,7 +8436,7 @@
         <v>650</v>
       </c>
       <c r="B650">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -8567,7 +8444,7 @@
         <v>651</v>
       </c>
       <c r="B651">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -8575,7 +8452,7 @@
         <v>652</v>
       </c>
       <c r="B652">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -8583,7 +8460,7 @@
         <v>653</v>
       </c>
       <c r="B653">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -8591,7 +8468,7 @@
         <v>654</v>
       </c>
       <c r="B654">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -8639,7 +8516,7 @@
         <v>660</v>
       </c>
       <c r="B660">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -8687,7 +8564,7 @@
         <v>666</v>
       </c>
       <c r="B666">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -8727,7 +8604,7 @@
         <v>671</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -8743,7 +8620,7 @@
         <v>673</v>
       </c>
       <c r="B673">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -8751,7 +8628,7 @@
         <v>674</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -8759,7 +8636,7 @@
         <v>675</v>
       </c>
       <c r="B675">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -8775,7 +8652,7 @@
         <v>677</v>
       </c>
       <c r="B677">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -8783,7 +8660,7 @@
         <v>678</v>
       </c>
       <c r="B678">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -8791,7 +8668,7 @@
         <v>679</v>
       </c>
       <c r="B679">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -8799,7 +8676,7 @@
         <v>680</v>
       </c>
       <c r="B680">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -8807,7 +8684,7 @@
         <v>681</v>
       </c>
       <c r="B681">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -8815,7 +8692,7 @@
         <v>682</v>
       </c>
       <c r="B682">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -8831,7 +8708,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -8855,7 +8732,7 @@
         <v>687</v>
       </c>
       <c r="B687">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -8863,7 +8740,7 @@
         <v>688</v>
       </c>
       <c r="B688">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -8903,7 +8780,7 @@
         <v>693</v>
       </c>
       <c r="B693">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -8927,7 +8804,7 @@
         <v>696</v>
       </c>
       <c r="B696">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -8943,7 +8820,7 @@
         <v>698</v>
       </c>
       <c r="B698">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -8951,7 +8828,7 @@
         <v>699</v>
       </c>
       <c r="B699">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -8959,7 +8836,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -8967,7 +8844,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -8975,7 +8852,7 @@
         <v>702</v>
       </c>
       <c r="B702">
-        <v>2</v>
+        <v>367</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -9015,7 +8892,7 @@
         <v>707</v>
       </c>
       <c r="B707">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -9031,7 +8908,7 @@
         <v>709</v>
       </c>
       <c r="B709">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -9047,7 +8924,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -9063,7 +8940,7 @@
         <v>713</v>
       </c>
       <c r="B713">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -9071,7 +8948,7 @@
         <v>714</v>
       </c>
       <c r="B714">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -9079,7 +8956,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -9095,7 +8972,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -9111,7 +8988,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -9119,7 +8996,7 @@
         <v>720</v>
       </c>
       <c r="B720">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -9143,7 +9020,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -9151,7 +9028,7 @@
         <v>724</v>
       </c>
       <c r="B724">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -9175,7 +9052,7 @@
         <v>727</v>
       </c>
       <c r="B727">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -9191,7 +9068,7 @@
         <v>729</v>
       </c>
       <c r="B729">
-        <v>381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -9199,7 +9076,7 @@
         <v>730</v>
       </c>
       <c r="B730">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -9231,7 +9108,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -9239,7 +9116,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -9287,7 +9164,7 @@
         <v>741</v>
       </c>
       <c r="B741">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -9295,7 +9172,7 @@
         <v>742</v>
       </c>
       <c r="B742">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -9335,7 +9212,7 @@
         <v>747</v>
       </c>
       <c r="B747">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -9343,7 +9220,7 @@
         <v>748</v>
       </c>
       <c r="B748">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -9367,7 +9244,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>1</v>
+        <v>437</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -9383,7 +9260,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -9391,7 +9268,7 @@
         <v>754</v>
       </c>
       <c r="B754">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -9431,7 +9308,7 @@
         <v>759</v>
       </c>
       <c r="B759">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -9455,7 +9332,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -9471,7 +9348,7 @@
         <v>764</v>
       </c>
       <c r="B764">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -9479,7 +9356,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -9487,7 +9364,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -9519,7 +9396,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -9551,7 +9428,7 @@
         <v>774</v>
       </c>
       <c r="B774">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -9599,7 +9476,7 @@
         <v>780</v>
       </c>
       <c r="B780">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -9607,7 +9484,7 @@
         <v>781</v>
       </c>
       <c r="B781">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -9615,7 +9492,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -9639,7 +9516,7 @@
         <v>785</v>
       </c>
       <c r="B785">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -9687,7 +9564,7 @@
         <v>791</v>
       </c>
       <c r="B791">
-        <v>1</v>
+        <v>452</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -9703,7 +9580,7 @@
         <v>793</v>
       </c>
       <c r="B793">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -9735,7 +9612,7 @@
         <v>797</v>
       </c>
       <c r="B797">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -9743,7 +9620,7 @@
         <v>798</v>
       </c>
       <c r="B798">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -9767,7 +9644,7 @@
         <v>801</v>
       </c>
       <c r="B801">
-        <v>1</v>
+        <v>268</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -9775,7 +9652,7 @@
         <v>802</v>
       </c>
       <c r="B802">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -9791,7 +9668,7 @@
         <v>804</v>
       </c>
       <c r="B804">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -9807,7 +9684,7 @@
         <v>806</v>
       </c>
       <c r="B806">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -9831,7 +9708,7 @@
         <v>809</v>
       </c>
       <c r="B809">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -9855,7 +9732,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -9895,7 +9772,7 @@
         <v>817</v>
       </c>
       <c r="B817">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -9927,7 +9804,7 @@
         <v>821</v>
       </c>
       <c r="B821">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -9943,7 +9820,7 @@
         <v>823</v>
       </c>
       <c r="B823">
-        <v>495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -9959,7 +9836,7 @@
         <v>825</v>
       </c>
       <c r="B825">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -9975,7 +9852,7 @@
         <v>827</v>
       </c>
       <c r="B827">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -9983,7 +9860,7 @@
         <v>828</v>
       </c>
       <c r="B828">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -10007,7 +9884,7 @@
         <v>831</v>
       </c>
       <c r="B831">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -10031,7 +9908,7 @@
         <v>834</v>
       </c>
       <c r="B834">
-        <v>281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -10039,7 +9916,7 @@
         <v>835</v>
       </c>
       <c r="B835">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -10047,7 +9924,7 @@
         <v>836</v>
       </c>
       <c r="B836">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -10055,7 +9932,7 @@
         <v>837</v>
       </c>
       <c r="B837">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -10079,7 +9956,7 @@
         <v>840</v>
       </c>
       <c r="B840">
-        <v>1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -10095,7 +9972,7 @@
         <v>842</v>
       </c>
       <c r="B842">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -10127,7 +10004,7 @@
         <v>846</v>
       </c>
       <c r="B846">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -10191,7 +10068,7 @@
         <v>854</v>
       </c>
       <c r="B854">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -10223,7 +10100,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -10239,7 +10116,7 @@
         <v>860</v>
       </c>
       <c r="B860">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -10247,7 +10124,7 @@
         <v>861</v>
       </c>
       <c r="B861">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -10255,7 +10132,7 @@
         <v>862</v>
       </c>
       <c r="B862">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -10287,7 +10164,7 @@
         <v>866</v>
       </c>
       <c r="B866">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -10311,7 +10188,7 @@
         <v>869</v>
       </c>
       <c r="B869">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -10319,7 +10196,7 @@
         <v>870</v>
       </c>
       <c r="B870">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -10343,7 +10220,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -10359,7 +10236,7 @@
         <v>875</v>
       </c>
       <c r="B875">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -10367,7 +10244,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -10399,7 +10276,7 @@
         <v>880</v>
       </c>
       <c r="B880">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -10431,7 +10308,7 @@
         <v>884</v>
       </c>
       <c r="B884">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -10447,7 +10324,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -10479,7 +10356,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -10527,7 +10404,7 @@
         <v>896</v>
       </c>
       <c r="B896">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -10559,7 +10436,7 @@
         <v>900</v>
       </c>
       <c r="B900">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -10575,7 +10452,7 @@
         <v>902</v>
       </c>
       <c r="B902">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -10591,7 +10468,7 @@
         <v>904</v>
       </c>
       <c r="B904">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -10599,7 +10476,7 @@
         <v>905</v>
       </c>
       <c r="B905">
-        <v>1</v>
+        <v>282</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -10607,7 +10484,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -10639,7 +10516,7 @@
         <v>910</v>
       </c>
       <c r="B910">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -10663,7 +10540,7 @@
         <v>913</v>
       </c>
       <c r="B913">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -10679,7 +10556,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>3</v>
+        <v>337</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -10711,7 +10588,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -10751,7 +10628,7 @@
         <v>924</v>
       </c>
       <c r="B924">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -10759,7 +10636,7 @@
         <v>925</v>
       </c>
       <c r="B925">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -10775,7 +10652,7 @@
         <v>927</v>
       </c>
       <c r="B927">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -10799,7 +10676,7 @@
         <v>930</v>
       </c>
       <c r="B930">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -10815,7 +10692,7 @@
         <v>932</v>
       </c>
       <c r="B932">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -10847,7 +10724,7 @@
         <v>936</v>
       </c>
       <c r="B936">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -10863,7 +10740,7 @@
         <v>938</v>
       </c>
       <c r="B938">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -10871,7 +10748,7 @@
         <v>939</v>
       </c>
       <c r="B939">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -10887,7 +10764,7 @@
         <v>941</v>
       </c>
       <c r="B941">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -10895,7 +10772,7 @@
         <v>942</v>
       </c>
       <c r="B942">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -10959,7 +10836,7 @@
         <v>950</v>
       </c>
       <c r="B950">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -10975,7 +10852,7 @@
         <v>952</v>
       </c>
       <c r="B952">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -10983,334 +10860,6 @@
         <v>953</v>
       </c>
       <c r="B953">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="954" spans="1:2">
-      <c r="A954" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="B954">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="955" spans="1:2">
-      <c r="A955" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B955">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="956" spans="1:2">
-      <c r="A956" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="B956">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="957" spans="1:2">
-      <c r="A957" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B957">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="958" spans="1:2">
-      <c r="A958" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="B958">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="959" spans="1:2">
-      <c r="A959" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="B959">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="960" spans="1:2">
-      <c r="A960" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="B960">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="961" spans="1:2">
-      <c r="A961" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="B961">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="962" spans="1:2">
-      <c r="A962" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="B962">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="963" spans="1:2">
-      <c r="A963" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="B963">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="964" spans="1:2">
-      <c r="A964" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="B964">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="965" spans="1:2">
-      <c r="A965" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="B965">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="966" spans="1:2">
-      <c r="A966" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="B966">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="967" spans="1:2">
-      <c r="A967" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="B967">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="968" spans="1:2">
-      <c r="A968" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="B968">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="969" spans="1:2">
-      <c r="A969" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="B969">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="970" spans="1:2">
-      <c r="A970" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="B970">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="971" spans="1:2">
-      <c r="A971" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B971">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="972" spans="1:2">
-      <c r="A972" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="B972">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="973" spans="1:2">
-      <c r="A973" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="B973">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="974" spans="1:2">
-      <c r="A974" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="B974">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="975" spans="1:2">
-      <c r="A975" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="B975">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="976" spans="1:2">
-      <c r="A976" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="B976">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="977" spans="1:2">
-      <c r="A977" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="B977">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="978" spans="1:2">
-      <c r="A978" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="B978">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="979" spans="1:2">
-      <c r="A979" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="B979">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="980" spans="1:2">
-      <c r="A980" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="B980">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="981" spans="1:2">
-      <c r="A981" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="B981">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="982" spans="1:2">
-      <c r="A982" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="B982">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="983" spans="1:2">
-      <c r="A983" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="B983">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="984" spans="1:2">
-      <c r="A984" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="B984">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="985" spans="1:2">
-      <c r="A985" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B985">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="986" spans="1:2">
-      <c r="A986" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="B986">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="987" spans="1:2">
-      <c r="A987" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="B987">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="988" spans="1:2">
-      <c r="A988" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="B988">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="989" spans="1:2">
-      <c r="A989" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="B989">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="990" spans="1:2">
-      <c r="A990" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="B990">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="991" spans="1:2">
-      <c r="A991" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="B991">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="992" spans="1:2">
-      <c r="A992" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="B992">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="993" spans="1:2">
-      <c r="A993" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="B993">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="994" spans="1:2">
-      <c r="A994" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="B994">
         <v>1</v>
       </c>
     </row>
